--- a/inst/extdata/TC.xlsx
+++ b/inst/extdata/TC.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/yzh10_iu_edu/Documents/research/nuMoM2b/whole_sequencing/mr.carv/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{EB338793-E911-CF44-9B38-94A76EF1FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CCF391F-08B7-FB41-891C-6E1D257B3DFA}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{EB338793-E911-CF44-9B38-94A76EF1FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E68B11-823D-C14F-AADE-061710BF53DA}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2240" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{8CF3AADF-3B51-1B4F-985A-713C56632C1E}"/>
+    <workbookView xWindow="39740" yWindow="3000" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{8CF3AADF-3B51-1B4F-985A-713C56632C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="indv_effect" sheetId="1" r:id="rId1"/>
-    <sheet name="gene_effect" sheetId="2" r:id="rId2"/>
+    <sheet name="coding" sheetId="2" r:id="rId2"/>
+    <sheet name="noncoding" sheetId="3" r:id="rId3"/>
+    <sheet name="window" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="511">
   <si>
     <t>A</t>
   </si>
@@ -1453,6 +1455,123 @@
   </si>
   <si>
     <t>Est_se</t>
+  </si>
+  <si>
+    <t>EHD3</t>
+  </si>
+  <si>
+    <t>HBB</t>
+  </si>
+  <si>
+    <t>promoter_CAGE</t>
+  </si>
+  <si>
+    <t>enhancer_DHS</t>
+  </si>
+  <si>
+    <t>promoter_DHS</t>
+  </si>
+  <si>
+    <t>enhancer_CAGE</t>
+  </si>
+  <si>
+    <t>Start.Loc</t>
+  </si>
+  <si>
+    <t>End.Loc</t>
+  </si>
+  <si>
+    <t>Genes linked to the region</t>
+  </si>
+  <si>
+    <t>Regions (regulatory element in the region)</t>
+  </si>
+  <si>
+    <t>Intron3-Exon4-Intron4 (EH38E1938952 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron4-Exon5-Intron5-Exon6 (EH38E1938952 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron4-Exon5-Intron5-Exon6-Intron6</t>
+  </si>
+  <si>
+    <t>Intron6 (EH38E1957001 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron28</t>
+  </si>
+  <si>
+    <t>Exon9-Intron9-Exon10-Intron10</t>
+  </si>
+  <si>
+    <t>Intron7-Exon8-Intron8-Exon9-Intron9</t>
+  </si>
+  <si>
+    <t>Intron1 (EH38E1938933, EH38E1938934, EH38E1938935, EH38E1938936, EH38E1938937 - all are distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>UTR-Exon1-Intron1 (EH38E1349457 proximal enhancer like signature, EH38E1349458 promoter like signature, EH38E1349459 promoter like signature, EH38E1349460 proximal enhancer like signature, EH38E1349461 proximal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Exon1-Intron1(EH38E1349458 promoter like signature, EH38E1349459 promoter like signature, EH38E1349460 proximal enhancer like signature, EH38E1349461 proximal enhancer like signature, EH38E1349462 proximal enhancer like signature, EH38E1349463 proximal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron3-Exon4-Intron4-Exon5 (EH38E1349472 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Exon4</t>
+  </si>
+  <si>
+    <t>Exon2-Intron2</t>
+  </si>
+  <si>
+    <t>UTR-Exon1</t>
+  </si>
+  <si>
+    <t>Intron3-Exon4</t>
+  </si>
+  <si>
+    <t>Intron4-Exon5</t>
+  </si>
+  <si>
+    <t>Intron6</t>
+  </si>
+  <si>
+    <t>Intron3-Exon4-Intron4-Exon5</t>
+  </si>
+  <si>
+    <t>Intron6-Exon7-Intron7-Exon8-Intron8-Exon9</t>
+  </si>
+  <si>
+    <t>LPAL2</t>
+  </si>
+  <si>
+    <t>Intron3</t>
+  </si>
+  <si>
+    <t>Intron1 (EH38E1938934, EH38E1938935, EH38E1938936, EH38E1938937 all distal enhancer like signature )</t>
+  </si>
+  <si>
+    <t>Exon1-Intron1 (EH38E1349458, EH38E1349459 promoters, EH38E1349460, EH38E1349461, EH38E1349462 proximal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron8-Exon9-Intron9-Exon10</t>
+  </si>
+  <si>
+    <t>SLC22A3 (near by gene)</t>
+  </si>
+  <si>
+    <t>LPA (near by gene)</t>
+  </si>
+  <si>
+    <t>Intron33-Exon33-Intron32 (EH38E2521388 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>LDLR (near by gene)</t>
+  </si>
+  <si>
+    <t>EH38E1938921, EH38E1938922 (distal enhancer like signature)</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1581,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1523,6 +1642,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1532,7 +1658,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1644,11 +1770,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1749,6 +1937,113 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14373,8 +14668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D427D3-02D1-0F48-84C3-582D66EA14C9}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15421,4 +15716,1797 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBC78FE-DFB7-094F-9783-E5FC1939E4D8}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="13">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="13">
+        <v>210</v>
+      </c>
+      <c r="G2" s="14">
+        <v>2.107E-7</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5.5840000000000001E-2</v>
+      </c>
+      <c r="I2" s="14">
+        <v>7.765E-7</v>
+      </c>
+      <c r="J2" s="14">
+        <v>4.6040000000000002E-7</v>
+      </c>
+      <c r="K2" s="48">
+        <v>0.275338655001101</v>
+      </c>
+      <c r="L2">
+        <v>0.66541379882738605</v>
+      </c>
+      <c r="M2" s="49">
+        <v>0.67903112308971203</v>
+      </c>
+      <c r="N2" s="17">
+        <v>231</v>
+      </c>
+      <c r="O2" s="18">
+        <v>3.6498261524187101E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="20">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="20">
+        <v>510</v>
+      </c>
+      <c r="G3" s="21">
+        <v>3.8410000000000002E-6</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="J3" s="21">
+        <v>7.61E-7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-0.42648281834086998</v>
+      </c>
+      <c r="L3">
+        <v>0.45430105486148498</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.34785040802616501</v>
+      </c>
+      <c r="N3" s="24">
+        <v>443</v>
+      </c>
+      <c r="O3" s="25">
+        <v>9.4936554173585802E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="20">
+        <v>403</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2.34E-7</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1.9619999999999998E-5</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.48409953167608999</v>
+      </c>
+      <c r="L4">
+        <v>0.50742050407070605</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.34006332150188501</v>
+      </c>
+      <c r="N4" s="24">
+        <v>307</v>
+      </c>
+      <c r="O4" s="25">
+        <v>2.0834087335861302E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="20">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="20">
+        <v>200</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1.4550000000000001E-4</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2.654E-5</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1.3870000000000001E-4</v>
+      </c>
+      <c r="J5" s="21">
+        <v>2.1679999999999998E-6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.812043515937656</v>
+      </c>
+      <c r="L5">
+        <v>0.58258702879413304</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.163360528213394</v>
+      </c>
+      <c r="N5" s="24">
+        <v>183</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.49598925660413701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="20">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="20">
+        <v>377</v>
+      </c>
+      <c r="G6" s="21">
+        <v>3.5990000000000001E-2</v>
+      </c>
+      <c r="H6" s="21">
+        <v>4.057E-4</v>
+      </c>
+      <c r="I6" s="21">
+        <v>5.855E-3</v>
+      </c>
+      <c r="J6" s="21">
+        <v>2.7879999999999998E-6</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-0.39081439070771801</v>
+      </c>
+      <c r="L6">
+        <v>0.51993551958915996</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.45225594664586</v>
+      </c>
+      <c r="N6" s="24">
+        <v>379</v>
+      </c>
+      <c r="O6" s="25">
+        <v>1.14088914304755E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="20">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2593</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2.987E-5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="I7" s="21">
+        <v>9.1410000000000005E-4</v>
+      </c>
+      <c r="J7" s="21">
+        <v>7.2879999999999993E-5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-0.36838181141082099</v>
+      </c>
+      <c r="L7">
+        <v>0.307901146233378</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.231529252230008</v>
+      </c>
+      <c r="N7" s="24">
+        <v>2173</v>
+      </c>
+      <c r="O7" s="25">
+        <v>1.7474910407599999E-13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="20">
+        <v>345</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="I8" s="21">
+        <v>4.3819999999999997E-5</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1.527E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.220777955385138</v>
+      </c>
+      <c r="L8">
+        <v>0.47508145966322102</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.64213484918602004</v>
+      </c>
+      <c r="N8" s="24">
+        <v>339</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0.15700102687643699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="20">
+        <v>590</v>
+      </c>
+      <c r="G9" s="21">
+        <v>3.4520000000000002E-3</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="I9" s="21">
+        <v>6.2509999999999996E-5</v>
+      </c>
+      <c r="J9" s="21">
+        <v>2.0579999999999999E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.37786012822806397</v>
+      </c>
+      <c r="L9">
+        <v>0.41550932431080301</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.36314416666903598</v>
+      </c>
+      <c r="N9" s="24">
+        <v>594</v>
+      </c>
+      <c r="O9" s="25">
+        <v>8.1485435820287496E-21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="27">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1122</v>
+      </c>
+      <c r="G10" s="28">
+        <v>2.3089999999999999E-3</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="I10" s="28">
+        <v>2.029E-4</v>
+      </c>
+      <c r="J10" s="28">
+        <v>4.57E-4</v>
+      </c>
+      <c r="K10" s="42">
+        <v>-0.44813219520872699</v>
+      </c>
+      <c r="L10">
+        <v>0.35692630375865603</v>
+      </c>
+      <c r="M10" s="43">
+        <v>0.20928590314014001</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1067</v>
+      </c>
+      <c r="O10" s="32">
+        <v>2.5704469996945501E-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B3EC46-1F44-D145-82A0-F3FE1469D555}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12:L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="57">
+        <v>19</v>
+      </c>
+      <c r="B2" s="57">
+        <v>11104547</v>
+      </c>
+      <c r="C2" s="58">
+        <v>11106546</v>
+      </c>
+      <c r="D2" s="58">
+        <v>348</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="G2" s="70">
+        <v>1.46778780125646</v>
+      </c>
+      <c r="H2">
+        <v>0.58995105577183704</v>
+      </c>
+      <c r="I2" s="73">
+        <v>1.2847011652298601E-2</v>
+      </c>
+      <c r="J2" s="76">
+        <v>307</v>
+      </c>
+      <c r="K2" s="77">
+        <v>3.5695634109104403E-2</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <v>19</v>
+      </c>
+      <c r="B3" s="59">
+        <v>11105547</v>
+      </c>
+      <c r="C3" s="60">
+        <v>11107546</v>
+      </c>
+      <c r="D3" s="60">
+        <v>349</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>483</v>
+      </c>
+      <c r="G3" s="71">
+        <v>1.6140484548437399</v>
+      </c>
+      <c r="H3">
+        <v>0.57098235854774304</v>
+      </c>
+      <c r="I3" s="74">
+        <v>4.7016832869165798E-3</v>
+      </c>
+      <c r="J3" s="78">
+        <v>326</v>
+      </c>
+      <c r="K3" s="79">
+        <v>4.5723929515908398E-3</v>
+      </c>
+      <c r="L3" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <v>19</v>
+      </c>
+      <c r="B4" s="59">
+        <v>44893547</v>
+      </c>
+      <c r="C4" s="60">
+        <v>44895546</v>
+      </c>
+      <c r="D4" s="60">
+        <v>355</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="G4" s="71">
+        <v>0.65370399742262097</v>
+      </c>
+      <c r="H4">
+        <v>0.52831941377814895</v>
+      </c>
+      <c r="I4" s="74">
+        <v>0.21596562218889201</v>
+      </c>
+      <c r="J4" s="78">
+        <v>335</v>
+      </c>
+      <c r="K4" s="79">
+        <v>9.26810250767574E-9</v>
+      </c>
+      <c r="L4" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <v>19</v>
+      </c>
+      <c r="B5" s="59">
+        <v>44894547</v>
+      </c>
+      <c r="C5" s="60">
+        <v>44896546</v>
+      </c>
+      <c r="D5" s="60">
+        <v>394</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="G5" s="71">
+        <v>1.41479067411196</v>
+      </c>
+      <c r="H5">
+        <v>0.48390714403099899</v>
+      </c>
+      <c r="I5" s="74">
+        <v>3.45917782253162E-3</v>
+      </c>
+      <c r="J5" s="78">
+        <v>364</v>
+      </c>
+      <c r="K5" s="79">
+        <v>1.44985157213284E-8</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <v>6</v>
+      </c>
+      <c r="B6" s="59">
+        <v>160564812</v>
+      </c>
+      <c r="C6" s="60">
+        <v>160566811</v>
+      </c>
+      <c r="D6" s="60">
+        <v>417</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="G6" s="71">
+        <v>0.38866394248887698</v>
+      </c>
+      <c r="H6">
+        <v>0.48727582681876602</v>
+      </c>
+      <c r="I6" s="74">
+        <v>0.42508747035300798</v>
+      </c>
+      <c r="J6" s="78">
+        <v>397</v>
+      </c>
+      <c r="K6" s="79">
+        <v>0.27631217648620898</v>
+      </c>
+      <c r="L6" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <v>1</v>
+      </c>
+      <c r="B7" s="59">
+        <v>55058464</v>
+      </c>
+      <c r="C7" s="60">
+        <v>55060463</v>
+      </c>
+      <c r="D7" s="60">
+        <v>340</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="71">
+        <v>5.8451669035186104E-3</v>
+      </c>
+      <c r="H7">
+        <v>0.56654578850676196</v>
+      </c>
+      <c r="I7" s="74">
+        <v>0.99176821047000097</v>
+      </c>
+      <c r="J7" s="78">
+        <v>329</v>
+      </c>
+      <c r="K7" s="79">
+        <v>9.7033492352238694E-14</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <v>1</v>
+      </c>
+      <c r="B8" s="59">
+        <v>55057464</v>
+      </c>
+      <c r="C8" s="60">
+        <v>55059463</v>
+      </c>
+      <c r="D8" s="60">
+        <v>320</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="G8" s="71">
+        <v>-0.493213735188478</v>
+      </c>
+      <c r="H8">
+        <v>0.62125182744353902</v>
+      </c>
+      <c r="I8" s="74">
+        <v>0.42725186031939399</v>
+      </c>
+      <c r="J8" s="78">
+        <v>351</v>
+      </c>
+      <c r="K8" s="79">
+        <v>8.3488771451811797E-14</v>
+      </c>
+      <c r="L8" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <v>19</v>
+      </c>
+      <c r="B9" s="59">
+        <v>11091547</v>
+      </c>
+      <c r="C9" s="60">
+        <v>11093546</v>
+      </c>
+      <c r="D9" s="60">
+        <v>301</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="G9" s="71">
+        <v>-2.7607557681290098</v>
+      </c>
+      <c r="H9">
+        <v>0.59247664665667998</v>
+      </c>
+      <c r="I9" s="74">
+        <v>3.16690472335549E-6</v>
+      </c>
+      <c r="J9" s="78">
+        <v>272</v>
+      </c>
+      <c r="K9" s="79">
+        <v>6.1694638577267603E-3</v>
+      </c>
+      <c r="L9" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="59">
+        <v>1</v>
+      </c>
+      <c r="B10" s="59">
+        <v>55038464</v>
+      </c>
+      <c r="C10" s="60">
+        <v>55040463</v>
+      </c>
+      <c r="D10" s="60">
+        <v>333</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>490</v>
+      </c>
+      <c r="G10" s="71">
+        <v>0.61151212107017605</v>
+      </c>
+      <c r="H10">
+        <v>0.60010029003528897</v>
+      </c>
+      <c r="I10" s="74">
+        <v>0.30819511437355301</v>
+      </c>
+      <c r="J10" s="78">
+        <v>365</v>
+      </c>
+      <c r="K10" s="79">
+        <v>6.4761763585681795E-2</v>
+      </c>
+      <c r="L10" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="59">
+        <v>1</v>
+      </c>
+      <c r="B11" s="59">
+        <v>55039464</v>
+      </c>
+      <c r="C11" s="60">
+        <v>55041463</v>
+      </c>
+      <c r="D11" s="60">
+        <v>359</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="G11" s="71">
+        <v>-0.463317219939546</v>
+      </c>
+      <c r="H11">
+        <v>0.59116331935279398</v>
+      </c>
+      <c r="I11" s="74">
+        <v>0.43319379839135702</v>
+      </c>
+      <c r="J11" s="78">
+        <v>352</v>
+      </c>
+      <c r="K11" s="79">
+        <v>0.16791254652151399</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+      <c r="A12" s="59">
+        <v>1</v>
+      </c>
+      <c r="B12" s="59">
+        <v>55051464</v>
+      </c>
+      <c r="C12" s="60">
+        <v>55053463</v>
+      </c>
+      <c r="D12" s="60">
+        <v>338</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="G12" s="71">
+        <v>-0.78798922929472703</v>
+      </c>
+      <c r="H12">
+        <v>0.64062639082643802</v>
+      </c>
+      <c r="I12" s="74">
+        <v>0.218686134091132</v>
+      </c>
+      <c r="J12" s="78">
+        <v>355</v>
+      </c>
+      <c r="K12" s="79">
+        <v>6.1726443316334798E-21</v>
+      </c>
+      <c r="L12" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61">
+        <v>6</v>
+      </c>
+      <c r="B13" s="61">
+        <v>160563812</v>
+      </c>
+      <c r="C13" s="62">
+        <v>160565811</v>
+      </c>
+      <c r="D13" s="62">
+        <v>411</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>486</v>
+      </c>
+      <c r="G13" s="72">
+        <v>0.22709815726852101</v>
+      </c>
+      <c r="H13">
+        <v>0.48712236171486201</v>
+      </c>
+      <c r="I13" s="75">
+        <v>0.64106983358915604</v>
+      </c>
+      <c r="J13" s="80">
+        <v>438</v>
+      </c>
+      <c r="K13" s="81">
+        <v>3.5523780627455499E-4</v>
+      </c>
+      <c r="L13" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="57">
+        <v>19</v>
+      </c>
+      <c r="B14" s="57">
+        <v>11105416</v>
+      </c>
+      <c r="C14" s="58">
+        <v>11105599</v>
+      </c>
+      <c r="D14" s="57">
+        <v>40</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G14" s="86">
+        <v>23.4115204399838</v>
+      </c>
+      <c r="H14">
+        <v>3.68363227144956</v>
+      </c>
+      <c r="I14" s="89">
+        <v>2.0767801477331699E-10</v>
+      </c>
+      <c r="J14" s="47">
+        <v>38</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0.21955583355212899</v>
+      </c>
+      <c r="L14" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="59">
+        <v>19</v>
+      </c>
+      <c r="B15" s="59">
+        <v>11105304</v>
+      </c>
+      <c r="C15" s="60">
+        <v>11105599</v>
+      </c>
+      <c r="D15" s="59">
+        <v>60</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>493</v>
+      </c>
+      <c r="G15" s="87">
+        <v>11.5471496996542</v>
+      </c>
+      <c r="H15">
+        <v>2.34350954792599</v>
+      </c>
+      <c r="I15" s="90">
+        <v>8.3378224597314497E-7</v>
+      </c>
+      <c r="J15" s="2">
+        <v>50</v>
+      </c>
+      <c r="K15" s="25">
+        <v>2.2774009470654999E-2</v>
+      </c>
+      <c r="L15" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="59">
+        <v>1</v>
+      </c>
+      <c r="B16" s="59">
+        <v>55043870</v>
+      </c>
+      <c r="C16" s="60">
+        <v>55044707</v>
+      </c>
+      <c r="D16" s="59">
+        <v>130</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="G16" s="87">
+        <v>-6.3529653478451804</v>
+      </c>
+      <c r="H16">
+        <v>0.96527479193751597</v>
+      </c>
+      <c r="I16" s="90">
+        <v>4.65695309570002E-11</v>
+      </c>
+      <c r="J16" s="2">
+        <v>120</v>
+      </c>
+      <c r="K16" s="25">
+        <v>1.7427414142900899E-5</v>
+      </c>
+      <c r="L16" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>11</v>
+      </c>
+      <c r="B17" s="59">
+        <v>5226924</v>
+      </c>
+      <c r="C17" s="60">
+        <v>5227274</v>
+      </c>
+      <c r="D17" s="59">
+        <v>80</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="G17" s="87">
+        <v>-6.7337747670340597</v>
+      </c>
+      <c r="H17">
+        <v>1.15191816940946</v>
+      </c>
+      <c r="I17" s="90">
+        <v>5.0442475739193401E-9</v>
+      </c>
+      <c r="J17" s="2">
+        <v>76</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0.217862694062084</v>
+      </c>
+      <c r="L17" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="59">
+        <v>1</v>
+      </c>
+      <c r="B18" s="59">
+        <v>55043782</v>
+      </c>
+      <c r="C18" s="60">
+        <v>55045382</v>
+      </c>
+      <c r="D18" s="59">
+        <v>251</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="G18" s="87">
+        <v>-2.7109932414861699</v>
+      </c>
+      <c r="H18">
+        <v>0.70673267935661699</v>
+      </c>
+      <c r="I18" s="90">
+        <v>1.2507840019985401E-4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>236</v>
+      </c>
+      <c r="K18" s="25">
+        <v>1.42234516209427E-6</v>
+      </c>
+      <c r="L18" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="59">
+        <v>19</v>
+      </c>
+      <c r="B19" s="59">
+        <v>44908199</v>
+      </c>
+      <c r="C19" s="60">
+        <v>44909063</v>
+      </c>
+      <c r="D19" s="59">
+        <v>190</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="G19" s="87">
+        <v>-5.04799945590098</v>
+      </c>
+      <c r="H19">
+        <v>0.97597801149167296</v>
+      </c>
+      <c r="I19" s="90">
+        <v>2.3129541201516299E-7</v>
+      </c>
+      <c r="J19" s="2">
+        <v>159</v>
+      </c>
+      <c r="K19" s="25">
+        <v>1.1449168444421799E-6</v>
+      </c>
+      <c r="L19" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="59">
+        <v>1</v>
+      </c>
+      <c r="B20" s="59">
+        <v>55052603</v>
+      </c>
+      <c r="C20" s="60">
+        <v>55052783</v>
+      </c>
+      <c r="D20" s="59">
+        <v>39</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>497</v>
+      </c>
+      <c r="G20" s="87">
+        <v>-1.0625401160829</v>
+      </c>
+      <c r="H20">
+        <v>1.3039300435721699</v>
+      </c>
+      <c r="I20" s="90">
+        <v>0.41514381119872601</v>
+      </c>
+      <c r="J20" s="2">
+        <v>45</v>
+      </c>
+      <c r="K20" s="25">
+        <v>2.6984047984543199E-21</v>
+      </c>
+      <c r="L20" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="59">
+        <v>19</v>
+      </c>
+      <c r="B21" s="59">
+        <v>44894411</v>
+      </c>
+      <c r="C21" s="60">
+        <v>44895977</v>
+      </c>
+      <c r="D21" s="59">
+        <v>300</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" s="87">
+        <v>0.64037869565348404</v>
+      </c>
+      <c r="H21">
+        <v>0.56827207726752205</v>
+      </c>
+      <c r="I21" s="90">
+        <v>0.25979005259367199</v>
+      </c>
+      <c r="J21" s="2">
+        <v>271</v>
+      </c>
+      <c r="K21" s="25">
+        <v>8.0475821562231398E-9</v>
+      </c>
+      <c r="L21" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="59">
+        <v>6</v>
+      </c>
+      <c r="B22" s="59">
+        <v>160565241</v>
+      </c>
+      <c r="C22" s="60">
+        <v>160566051</v>
+      </c>
+      <c r="D22" s="59">
+        <v>190</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G22" s="87">
+        <v>0.14056093795248101</v>
+      </c>
+      <c r="H22">
+        <v>0.62585360249264399</v>
+      </c>
+      <c r="I22" s="90">
+        <v>0.82229765158398005</v>
+      </c>
+      <c r="J22" s="2">
+        <v>167</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0.12151305723545699</v>
+      </c>
+      <c r="L22" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="59">
+        <v>1</v>
+      </c>
+      <c r="B23" s="59">
+        <v>55051542</v>
+      </c>
+      <c r="C23" s="60">
+        <v>55052853</v>
+      </c>
+      <c r="D23" s="59">
+        <v>229</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>499</v>
+      </c>
+      <c r="G23" s="87">
+        <v>-1.21190445294253</v>
+      </c>
+      <c r="H23">
+        <v>0.69898283885516399</v>
+      </c>
+      <c r="I23" s="90">
+        <v>8.2951542481156104E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>237</v>
+      </c>
+      <c r="K23" s="25">
+        <v>4.6135897971915699E-21</v>
+      </c>
+      <c r="L23" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24" s="59">
+        <v>1</v>
+      </c>
+      <c r="B24" s="59">
+        <v>55056894</v>
+      </c>
+      <c r="C24" s="60">
+        <v>55058640</v>
+      </c>
+      <c r="D24" s="59">
+        <v>270</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="G24" s="87">
+        <v>-0.15350788252297001</v>
+      </c>
+      <c r="H24">
+        <v>0.64352814975835004</v>
+      </c>
+      <c r="I24" s="90">
+        <v>0.81146147838068505</v>
+      </c>
+      <c r="J24" s="2">
+        <v>289</v>
+      </c>
+      <c r="K24" s="25">
+        <v>4.75175454539567E-14</v>
+      </c>
+      <c r="L24" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>6</v>
+      </c>
+      <c r="B25" s="59">
+        <v>160490563</v>
+      </c>
+      <c r="C25" s="60">
+        <v>160492222</v>
+      </c>
+      <c r="D25" s="59">
+        <v>291</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>501</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G25" s="87">
+        <v>3.7768289015861201</v>
+      </c>
+      <c r="H25">
+        <v>0.602640392619052</v>
+      </c>
+      <c r="I25" s="90">
+        <v>3.6775051511486702E-10</v>
+      </c>
+      <c r="J25" s="2">
+        <v>306</v>
+      </c>
+      <c r="K25" s="25">
+        <v>5.2016744057192803E-5</v>
+      </c>
+      <c r="L25" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="59">
+        <v>6</v>
+      </c>
+      <c r="B26" s="59">
+        <v>160490559</v>
+      </c>
+      <c r="C26" s="60">
+        <v>160492277</v>
+      </c>
+      <c r="D26" s="59">
+        <v>301</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>501</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G26" s="87">
+        <v>3.72477873354193</v>
+      </c>
+      <c r="H26">
+        <v>0.599456040698779</v>
+      </c>
+      <c r="I26" s="90">
+        <v>5.1784977038810201E-10</v>
+      </c>
+      <c r="J26" s="2">
+        <v>319</v>
+      </c>
+      <c r="K26" s="25">
+        <v>6.6197049572336297E-5</v>
+      </c>
+      <c r="L26" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="221" x14ac:dyDescent="0.2">
+      <c r="A27" s="59">
+        <v>19</v>
+      </c>
+      <c r="B27" s="59">
+        <v>11091732</v>
+      </c>
+      <c r="C27" s="60">
+        <v>11093628</v>
+      </c>
+      <c r="D27" s="59">
+        <v>300</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="G27" s="87">
+        <v>-1.7508763037085899</v>
+      </c>
+      <c r="H27">
+        <v>0.58113922430127696</v>
+      </c>
+      <c r="I27" s="90">
+        <v>2.5882002492840402E-3</v>
+      </c>
+      <c r="J27" s="2">
+        <v>261</v>
+      </c>
+      <c r="K27" s="25">
+        <v>7.4150091652888097E-3</v>
+      </c>
+      <c r="L27" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="289" x14ac:dyDescent="0.2">
+      <c r="A28" s="59">
+        <v>1</v>
+      </c>
+      <c r="B28" s="59">
+        <v>55039585</v>
+      </c>
+      <c r="C28" s="60">
+        <v>55040767</v>
+      </c>
+      <c r="D28" s="59">
+        <v>230</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="G28" s="87">
+        <v>-1.03547050581719</v>
+      </c>
+      <c r="H28">
+        <v>0.70872407347371602</v>
+      </c>
+      <c r="I28" s="90">
+        <v>0.144005902716933</v>
+      </c>
+      <c r="J28" s="2">
+        <v>227</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0.25027859167799299</v>
+      </c>
+      <c r="L28" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="59">
+        <v>19</v>
+      </c>
+      <c r="B29" s="59">
+        <v>44895025</v>
+      </c>
+      <c r="C29" s="60">
+        <v>44895206</v>
+      </c>
+      <c r="D29" s="59">
+        <v>40</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G29" s="87">
+        <v>10.4430578005064</v>
+      </c>
+      <c r="H29">
+        <v>1.2201204111941799</v>
+      </c>
+      <c r="I29" s="90">
+        <v>1.13812524977374E-17</v>
+      </c>
+      <c r="J29" s="2">
+        <v>35</v>
+      </c>
+      <c r="K29" s="25">
+        <v>2.71055191172742E-3</v>
+      </c>
+      <c r="L29" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="59">
+        <v>19</v>
+      </c>
+      <c r="B30" s="59">
+        <v>11112119</v>
+      </c>
+      <c r="C30" s="60">
+        <v>11113778</v>
+      </c>
+      <c r="D30" s="59">
+        <v>280</v>
+      </c>
+      <c r="E30" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="G30" s="87">
+        <v>0.64422708332541101</v>
+      </c>
+      <c r="H30">
+        <v>0.60245810927363896</v>
+      </c>
+      <c r="I30" s="90">
+        <v>0.28492058341498899</v>
+      </c>
+      <c r="J30" s="2">
+        <v>317</v>
+      </c>
+      <c r="K30" s="25">
+        <v>1.16267773186962E-10</v>
+      </c>
+      <c r="L30" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="59">
+        <v>6</v>
+      </c>
+      <c r="B31" s="59">
+        <v>160328948</v>
+      </c>
+      <c r="C31" s="60">
+        <v>160330499</v>
+      </c>
+      <c r="D31" s="59">
+        <v>250</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>506</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="87">
+        <v>1.9858665128783799</v>
+      </c>
+      <c r="H31">
+        <v>0.58899949274899999</v>
+      </c>
+      <c r="I31" s="90">
+        <v>7.47348264293543E-4</v>
+      </c>
+      <c r="J31" s="2">
+        <v>252</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0.47871903931481802</v>
+      </c>
+      <c r="L31" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
+        <v>6</v>
+      </c>
+      <c r="B32" s="59">
+        <v>160523504</v>
+      </c>
+      <c r="C32" s="60">
+        <v>160525729</v>
+      </c>
+      <c r="D32" s="59">
+        <v>299</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="87">
+        <v>0.47975732353448403</v>
+      </c>
+      <c r="H32">
+        <v>0.59111981785146495</v>
+      </c>
+      <c r="I32" s="90">
+        <v>0.41701684172813003</v>
+      </c>
+      <c r="J32" s="2">
+        <v>321</v>
+      </c>
+      <c r="K32" s="25">
+        <v>2.4741948551002799E-2</v>
+      </c>
+      <c r="L32" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A33" s="59">
+        <v>6</v>
+      </c>
+      <c r="B33" s="59">
+        <v>160544896</v>
+      </c>
+      <c r="C33" s="60">
+        <v>160545876</v>
+      </c>
+      <c r="D33" s="59">
+        <v>160</v>
+      </c>
+      <c r="E33" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="G33" s="87">
+        <v>2.4919104964050098</v>
+      </c>
+      <c r="H33">
+        <v>0.70603572940977799</v>
+      </c>
+      <c r="I33" s="90">
+        <v>4.1644067602020001E-4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>188</v>
+      </c>
+      <c r="K33" s="25">
+        <v>5.83740739591012E-2</v>
+      </c>
+      <c r="L33" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="61">
+        <v>19</v>
+      </c>
+      <c r="B34" s="61">
+        <v>11085713</v>
+      </c>
+      <c r="C34" s="62">
+        <v>11086079</v>
+      </c>
+      <c r="D34" s="61">
+        <v>60</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>509</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>510</v>
+      </c>
+      <c r="G34" s="88">
+        <v>5.4618108551899303</v>
+      </c>
+      <c r="H34">
+        <v>0.77378391935840496</v>
+      </c>
+      <c r="I34" s="91">
+        <v>1.6822022054884099E-12</v>
+      </c>
+      <c r="J34" s="41">
+        <v>71</v>
+      </c>
+      <c r="K34" s="32">
+        <v>1.3286564187228201E-2</v>
+      </c>
+      <c r="L34" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>